--- a/Documentation/Timing work.xlsx
+++ b/Documentation/Timing work.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex_khatar\Desktop\SocialNetwork Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TAMRIN\SocialNetworkAPI\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF6BD3D-2496-4997-A961-98C35F953683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145820D6-793F-4745-A833-A2A6994D4965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A2FFED6A-0DDC-4843-B5E1-44DBC4FD2FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="گزارش کلی" sheetId="6" r:id="rId1"/>
     <sheet name="Timing" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Social_Network">Sheet4!$A$2:$A$14</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>توضیحات</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>بهبود برنامه طبق فید بک های مهندس شهروز (بستن قسمت ادیت بعد از سیو، عدم نمایش پیام وقتی شما در صفحه چت ایشان نیستید، آپدیت اتوماتیک زمان گذشته از ارسال پیام)</t>
+  </si>
+  <si>
+    <t>SocialNetworkApi</t>
+  </si>
+  <si>
+    <t>Structure of project</t>
+  </si>
+  <si>
+    <t>Implementing layers</t>
   </si>
 </sst>
 </file>
@@ -823,7 +832,7 @@
   <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1301,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="7"/>
@@ -1340,15 +1351,19 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="6">
+        <v>211</v>
+      </c>
+      <c r="B24" s="21">
+        <v>45100.625</v>
+      </c>
       <c r="C24" s="21"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-45100.625</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3076,68 +3091,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9E2256-D3FF-4F38-B12C-163E006677BE}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>

--- a/Documentation/Timing work.xlsx
+++ b/Documentation/Timing work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TAMRIN\SocialNetworkAPI\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145820D6-793F-4745-A833-A2A6994D4965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618799F3-04AF-4D43-87D2-5EE614F4885D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A2FFED6A-0DDC-4843-B5E1-44DBC4FD2FF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A2FFED6A-0DDC-4843-B5E1-44DBC4FD2FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="گزارش کلی" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="Social_Network">Sheet4!$A$2:$A$14</definedName>
+    <definedName name="SocialNetworkApi">Sheet4!$B$2:$B$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>توضیحات</t>
   </si>
@@ -153,6 +154,9 @@
   </si>
   <si>
     <t>Implementing layers</t>
+  </si>
+  <si>
+    <t>انتقال برنامه قبلی به برنامه فعلی و آماده سازی آن برحسب دات نت جدید</t>
   </si>
 </sst>
 </file>
@@ -831,15 +835,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072EBC7C-5AF1-46C3-A505-6638B2B4A899}">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59.140625" style="16" customWidth="1"/>
     <col min="7" max="7" width="19" style="2" customWidth="1"/>
@@ -1357,13 +1361,21 @@
       <c r="B24" s="21">
         <v>45100.625</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="13"/>
+      <c r="C24" s="21">
+        <v>45100.875</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>-45100.625</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3068,7 +3080,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E28" xr:uid="{7134636C-A79F-433B-886A-B3AFFA854603}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E23 E25:E28 E24" xr:uid="{7134636C-A79F-433B-886A-B3AFFA854603}">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3081,7 +3093,7 @@
           <x14:formula1>
             <xm:f>Sheet4!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D28</xm:sqref>
+          <xm:sqref>D2:D18 D20:D28 D19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3093,14 +3105,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9E2256-D3FF-4F38-B12C-163E006677BE}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/Documentation/Timing work.xlsx
+++ b/Documentation/Timing work.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TAMRIN\SocialNetworkAPI\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaeim\source\repos\alimoh1372\SocialNetworkAPI\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618799F3-04AF-4D43-87D2-5EE614F4885D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A2FFED6A-0DDC-4843-B5E1-44DBC4FD2FF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="گزارش کلی" sheetId="6" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="Social_Network">Sheet4!$A$2:$A$14</definedName>
     <definedName name="SocialNetworkApi">Sheet4!$B$2:$B$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>توضیحات</t>
   </si>
@@ -157,12 +156,15 @@
   </si>
   <si>
     <t>انتقال برنامه قبلی به برنامه فعلی و آماده سازی آن برحسب دات نت جدید</t>
+  </si>
+  <si>
+    <t>شروع تست نویسی</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-960429]yyyy/dd/mm\ hh:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[$-960429]yyyy/mm/dd\ hh:mm:ss;@"/>
@@ -716,7 +718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6979C7BB-49DD-4B2B-B223-E70FB219D1F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -832,11 +834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072EBC7C-5AF1-46C3-A505-6638B2B4A899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,7 +1321,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="7"/>
@@ -1331,7 +1335,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="7"/>
@@ -1343,7 +1349,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="7"/>
@@ -1356,7 +1364,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="B24" s="21">
         <v>45100.625</v>
@@ -1379,7 +1387,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="7"/>
@@ -1391,7 +1401,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="7"/>
@@ -1403,19 +1415,27 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="21">
+        <v>45109.351388888892</v>
+      </c>
       <c r="C27" s="21"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-45109.351388888892</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="7"/>
@@ -3080,7 +3100,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E23 E25:E28 E24" xr:uid="{7134636C-A79F-433B-886A-B3AFFA854603}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E28">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3089,11 +3109,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FEE3E4AE-AE62-447B-84FC-AF0217A83A24}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet4!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D18 D20:D28 D19</xm:sqref>
+          <xm:sqref>D2:D28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3102,10 +3122,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9E2256-D3FF-4F38-B12C-163E006677BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Timing work.xlsx
+++ b/Documentation/Timing work.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="55">
   <si>
     <t>توضیحات</t>
   </si>
@@ -158,7 +158,43 @@
     <t>انتقال برنامه قبلی به برنامه فعلی و آماده سازی آن برحسب دات نت جدید</t>
   </si>
   <si>
-    <t>شروع تست نویسی</t>
+    <t>Toturial</t>
+  </si>
+  <si>
+    <t>آموزش موارد جدید .net 6</t>
+  </si>
+  <si>
+    <t>آموزش موارد جدید Ef core 6</t>
+  </si>
+  <si>
+    <t>آموزش JWT و نحوه ی استفاده از آن</t>
+  </si>
+  <si>
+    <t>پیاده سازی لایه های برنامه</t>
+  </si>
+  <si>
+    <t>آموزش API نویسی و Swagger</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>پیاده سازی API</t>
+  </si>
+  <si>
+    <t>پیاده سازی JWT و استفاده از آن در Swagger</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>آموزش تست نویسی</t>
+  </si>
+  <si>
+    <t>تست نویسی برای لایه ی Application</t>
+  </si>
+  <si>
+    <t>تست نویسی لایه ی Presentation</t>
   </si>
 </sst>
 </file>
@@ -835,10 +871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G65" si="0">C3-B3</f>
+        <f t="shared" ref="G3:G68" si="0">C3-B3</f>
         <v>1.3194444443797693E-2</v>
       </c>
     </row>
@@ -1310,76 +1346,116 @@
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="21">
+        <v>45098.375694444447</v>
+      </c>
+      <c r="C20" s="21">
+        <v>45098.625694444447</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="21">
+        <v>45099.375</v>
+      </c>
+      <c r="C21" s="21">
+        <v>45099.625</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="21">
+        <v>45099.375</v>
+      </c>
+      <c r="C22" s="21">
+        <v>45100.666666666664</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2916666666642413</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="B23" s="21">
+        <v>45100.625</v>
+      </c>
+      <c r="C23" s="21">
+        <v>45100.875</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="21">
-        <v>45100.625</v>
+        <v>45101.458333333336</v>
       </c>
       <c r="C24" s="21">
-        <v>45100.875</v>
+        <v>45101.708333333336</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
@@ -1388,114 +1464,200 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="21">
+        <v>45102.375</v>
+      </c>
+      <c r="C25" s="21">
+        <v>45102.625</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="B26" s="21">
+        <v>45103.375</v>
+      </c>
+      <c r="C26" s="21">
+        <v>45103.625</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="21">
-        <v>45109.351388888892</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+        <v>45104.375</v>
+      </c>
+      <c r="C27" s="21">
+        <v>45104.625</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="F27" s="13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>-45109.351388888892</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B28" s="21">
+        <v>45105.375</v>
+      </c>
+      <c r="C28" s="21">
+        <v>45105.625</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="13"/>
+      <c r="A29" s="6">
+        <v>29</v>
+      </c>
+      <c r="B29" s="21">
+        <v>45106.375</v>
+      </c>
+      <c r="C29" s="21">
+        <v>45106.625</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="13"/>
+      <c r="A30" s="6">
+        <v>30</v>
+      </c>
+      <c r="B30" s="21">
+        <v>45109.351388888892</v>
+      </c>
+      <c r="C30" s="21">
+        <v>45109.625</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27361111110803904</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="13"/>
+      <c r="A31" s="6">
+        <v>31</v>
+      </c>
+      <c r="B31" s="21">
+        <v>45110.375</v>
+      </c>
+      <c r="C31" s="21">
+        <v>45110.625</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="13"/>
+      <c r="A32" s="6">
+        <v>32</v>
+      </c>
+      <c r="B32" s="21">
+        <v>45111.375</v>
+      </c>
+      <c r="C32" s="21">
+        <v>45111.625</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="A33" s="6">
+        <v>33</v>
+      </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="7"/>
@@ -1507,7 +1669,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="A34" s="6">
+        <v>34</v>
+      </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="7"/>
@@ -1898,7 +2062,7 @@
       <c r="E66" s="7"/>
       <c r="F66" s="13"/>
       <c r="G66" s="8">
-        <f t="shared" ref="G66:G129" si="2">C66-B66</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1910,7 +2074,7 @@
       <c r="E67" s="7"/>
       <c r="F67" s="13"/>
       <c r="G67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1922,7 +2086,7 @@
       <c r="E68" s="7"/>
       <c r="F68" s="13"/>
       <c r="G68" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1934,7 +2098,7 @@
       <c r="E69" s="7"/>
       <c r="F69" s="13"/>
       <c r="G69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G69:G132" si="2">C69-B69</f>
         <v>0</v>
       </c>
     </row>
@@ -2666,7 +2830,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="13"/>
       <c r="G130" s="8">
-        <f t="shared" ref="G130:G163" si="3">C130-B130</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2678,7 +2842,7 @@
       <c r="E131" s="7"/>
       <c r="F131" s="13"/>
       <c r="G131" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2690,7 +2854,7 @@
       <c r="E132" s="7"/>
       <c r="F132" s="13"/>
       <c r="G132" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2702,7 +2866,7 @@
       <c r="E133" s="7"/>
       <c r="F133" s="13"/>
       <c r="G133" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G133:G166" si="3">C133-B133</f>
         <v>0</v>
       </c>
     </row>
@@ -3054,29 +3218,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="9"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="12">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="6"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+      <c r="A164" s="6"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="A165" s="6"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="9"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
@@ -3098,9 +3286,21 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
     </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3113,7 +3313,7 @@
           <x14:formula1>
             <xm:f>Sheet4!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D28</xm:sqref>
+          <xm:sqref>D2:D32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3126,7 +3326,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,15 +3363,24 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
